--- a/Projects/MONDELEZUS/Data/KENGINE_MONDELEZUS_V2.xlsx
+++ b/Projects/MONDELEZUS/Data/KENGINE_MONDELEZUS_V2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -45,40 +45,19 @@
     <t xml:space="preserve">Sweets</t>
   </si>
   <si>
-    <t xml:space="preserve">Candy &amp; Chocolate Main Shelf,Candy &amp; Chocolate Main Aisle </t>
+    <t xml:space="preserve">Candy &amp; Chocolate Main Shelf,Candy &amp; Chocolate Main Aisle ,Chewing Gum Main Shelf,Chewing Gum Main Aisle ,Cookies &amp; Crackers Main Shelf,Cookies &amp; Crackers Main Aisle ,Cough Drops Main Shelf,Cough Drops Main Aisle ,Checkout – Grocery,Displays - Mondelez Brands Only,Checkout – C-Store,Breakfast Main Shelf</t>
   </si>
   <si>
     <t xml:space="preserve">Chewing Gum &amp; Mints</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewing Gum Main Shelf,Chewing Gum Main Aisle </t>
-  </si>
-  <si>
     <t xml:space="preserve">Chocolate</t>
   </si>
   <si>
-    <t xml:space="preserve">Candy &amp; Chocolate Main Shelf, Candy &amp; Chocolate Main Aisle </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cookies &amp; Crackers</t>
   </si>
   <si>
-    <t xml:space="preserve">Cookies &amp; Crackers Main Shelf,Cookies &amp; Crackers Main Aisle </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cough Drops Main Shelf,Cough Drops Main Aisle </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cough, Cookies &amp; Crackers, Chocolate, Chewing Gum &amp; Mints, Sweets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkout – Grocery,Displays - Mondelez Brands Only,Checkout - C-Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breakfast Main Shelf</t>
   </si>
   <si>
     <t xml:space="preserve">KPI Name</t>
@@ -180,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -210,21 +189,7 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -263,7 +228,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -288,20 +253,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -312,15 +265,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -401,19 +354,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.4534412955466"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.5222672064777"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="79.1983805668016"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.46153846153846"/>
   </cols>
   <sheetData>
@@ -431,7 +384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -445,7 +398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="54.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -455,39 +408,39 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="54.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="54.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="54.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -495,38 +448,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -553,33 +478,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="1013" min="4" style="10" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1022" min="1014" style="11" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="1013" min="4" style="7" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1022" min="1014" style="8" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>21</v>
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="70.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="13" t="n">
+      <c r="A2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -607,74 +532,74 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.1295546558704"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
+      <c r="A5" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>29</v>
+      <c r="A6" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>29</v>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
